--- a/管理/仕様＆企画/仕様/Fight/Result.xlsx
+++ b/管理/仕様＆企画/仕様/Fight/Result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\仕様＆企画\仕様\Fight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81446BD-90C9-445D-9F0C-8F1DBA6952E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AAE332-BE5D-4C34-86A4-65B665C3C4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{494B874D-FAC7-4796-86F6-6B33874CCEBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{494B874D-FAC7-4796-86F6-6B33874CCEBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="1" r:id="rId1"/>
@@ -295,6 +295,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C5DADE-7A50-E0F5-659C-68ECA5F50D3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9077325" y="5467350"/>
+          <a:ext cx="7772400" cy="4371975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -305,13 +355,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>497116</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>86592</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -340,8 +390,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714375" y="295275"/>
-          <a:ext cx="7772400" cy="4371975"/>
+          <a:off x="721302" y="299606"/>
+          <a:ext cx="15015814" cy="8515350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>346363</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>173180</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>105629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BD9242-8847-425F-B8B1-7C263E82EF76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16279090" y="363682"/>
+          <a:ext cx="15066817" cy="8470311"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -652,22 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613817D8-87F1-473C-97F8-F2188126D36F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E38BA8A-C01C-48FC-9E2F-9E0DD77F8B9F}">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -678,12 +764,28 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E38BA8A-C01C-48FC-9E2F-9E0DD77F8B9F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3465E06F-E9ED-4489-B728-9EFB95CF4DBC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AL43" sqref="AL43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
